--- a/rep_output/table4.xlsx
+++ b/rep_output/table4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -38,19 +38,19 @@
     <t xml:space="preserve">log maximum landholdings</t>
   </si>
   <si>
-    <t xml:space="preserve">0.031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.000)</t>
+    <t xml:space="preserve">0.032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.002)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.008)</t>
@@ -59,229 +59,247 @@
     <t xml:space="preserve">log minimum landholdings</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.068</t>
+    <t xml:space="preserve">-0.045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.005)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.019)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pareto exponent $\widehat{\lambda}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.012)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log village population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log district population less \emph{v}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.022)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.021)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.024)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.023)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log district area less \emph{v}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log distance to subdistrict capital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.010)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log distance to nearest emigration center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.003</t>
   </si>
   <si>
     <t xml:space="preserve">0.009</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.217</t>
+    <t xml:space="preserve">0.011</t>
   </si>
   <si>
     <t xml:space="preserve">(0.018)</t>
   </si>
   <si>
-    <t xml:space="preserve">Pareto exponent $\widehat{\lambda}$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.011)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log village population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.012)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log district population less \emph{v}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.036)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.016)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.028)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.019)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log district area less \emph{v}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log distance to subdistrict capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.010)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log distance to nearest emigration center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.013)</t>
-  </si>
-  <si>
     <t xml:space="preserve">rice price shock</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.222)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.282)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.218)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.283)</t>
+    <t xml:space="preserve">0.091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.082)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.102)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.076)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.089)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.391)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.373)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.393)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.374)</t>
   </si>
   <si>
     <t xml:space="preserve">rainfall shock</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.014)</t>
+    <t xml:space="preserve">0.034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.017)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of Villages</t>
@@ -792,10 +810,10 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
@@ -804,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
@@ -818,7 +836,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -827,10 +845,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
         <v>0</v>
@@ -839,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -859,7 +877,7 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
@@ -868,15 +886,15 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -885,10 +903,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
@@ -897,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -914,10 +932,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
@@ -926,39 +944,39 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="I11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
@@ -966,57 +984,57 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I14" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
@@ -1024,57 +1042,57 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="I15" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="H16" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17">
@@ -1082,57 +1100,57 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H17" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
         <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G18" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H18" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="I18" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
@@ -1140,57 +1158,57 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H19" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I20" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
@@ -1198,57 +1216,57 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I21" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F22" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H22" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="I22" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23">
@@ -1256,28 +1274,28 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
@@ -1287,7 +1305,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B26" t="n">
         <v>44665</v>
